--- a/FormularioWeb.xlsx
+++ b/FormularioWeb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\unal\Computacion grafica\Projecto cajas\Modelado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFEF5C9-6C6F-4619-9F2F-B2013A7E8D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D957CB6-C4CC-4B0D-8B71-569F9FBBCA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="1665" windowWidth="15375" windowHeight="7875" xr2:uid="{E650AC30-F1B3-4EA1-82A1-D13479F8B93B}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="15375" windowHeight="7875" xr2:uid="{E650AC30-F1B3-4EA1-82A1-D13479F8B93B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
